--- a/biology/Médecine/Muscle_quadriceps_fémoral/Muscle_quadriceps_fémoral.xlsx
+++ b/biology/Médecine/Muscle_quadriceps_fémoral/Muscle_quadriceps_fémoral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_quadriceps_f%C3%A9moral</t>
+          <t>Muscle_quadriceps_fémoral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle quadriceps fémoral (anciennement appelé muscle quadriceps crural ou quadriceps) est un muscle du membre inférieur située dans la loge fémorale antérieure.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_quadriceps_f%C3%A9moral</t>
+          <t>Muscle_quadriceps_fémoral</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le muscle quadriceps fémoral est le plus volumineux des muscles du corps humain. Il relie l'os coxal et le fémur au tibia et à la patella.
 Il est constitué de quatre corps musculaires : 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_quadriceps_f%C3%A9moral</t>
+          <t>Muscle_quadriceps_fémoral</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Par le muscle droit fémoral, le muscle quadriceps fémoral se fixe sur l'épine iliaque antérieure et inférieure, dans le sillon supra-acétabulaire et la face antérieure du grand trochanter.
 Par le muscle vaste latéral, il se fixe sur la lèvre latérale de la ligne âpre jusqu'à la base du grand trochanter.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_quadriceps_f%C3%A9moral</t>
+          <t>Muscle_quadriceps_fémoral</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les quatre corps musculaires se dirigent vers le bas pour se terminer par un tendon commun : le tendon quadricipital qui englobe la patella et qui se prolonge vers le bas par le ligament de la patella.
 </t>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_quadriceps_f%C3%A9moral</t>
+          <t>Muscle_quadriceps_fémoral</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Par l'intermédiaire du ligament de la patella le muscle quadriceps s'insère sur la tubérosité du tibia.
 </t>
@@ -624,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muscle_quadriceps_f%C3%A9moral</t>
+          <t>Muscle_quadriceps_fémoral</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,7 +662,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle quadriceps fémoral est innervé par les différentes branches du nerf du quadriceps, branche terminale motrice du nerf fémoral, issu du plexus lombaire.
 </t>
@@ -655,7 +677,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Muscle_quadriceps_f%C3%A9moral</t>
+          <t>Muscle_quadriceps_fémoral</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -673,7 +695,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Le muscle quadriceps fémoral est un muscle bi-articulaire : articulation coxale et articulation du genou.
 C'est lui qui supporte en grande partie le poids du corps et permet les déplacements.
@@ -690,7 +714,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Muscle_quadriceps_f%C3%A9moral</t>
+          <t>Muscle_quadriceps_fémoral</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -708,11 +732,13 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Amyotrophie
 Déchirure musculaire
-Une amyotrophie du vaste médial peut entraîner un syndrome rotulien[1].</t>
+Une amyotrophie du vaste médial peut entraîner un syndrome rotulien.</t>
         </is>
       </c>
     </row>
@@ -722,7 +748,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Muscle_quadriceps_f%C3%A9moral</t>
+          <t>Muscle_quadriceps_fémoral</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -740,9 +766,11 @@
           <t>Culture physique</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les quadriceps interviennent comme muscles moteurs ou synergiques dans l'exercice du soulevé de terre, de la presse à cuisses et de la flexion sur jambes (aussi appelé squat)[2].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les quadriceps interviennent comme muscles moteurs ou synergiques dans l'exercice du soulevé de terre, de la presse à cuisses et de la flexion sur jambes (aussi appelé squat).
 </t>
         </is>
       </c>
